--- a/data/clinical_examples/electrode_layouts/test_electrode_layout.xlsx
+++ b/data/clinical_examples/electrode_layouts/test_electrode_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam2392/Documents/eegio/data/clinical_examples/electrode_layouts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/Desktop/eegio/data/clinical_examples/electrode_layouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7B835-9C09-2343-9B2C-ABD71118EFC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ACB3AD-1AB6-F24C-8426-099D29C8ADE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5960" yWindow="460" windowWidth="27640" windowHeight="16200" xr2:uid="{E8D599BF-346F-FF46-9897-315240A88F33}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16200" xr2:uid="{E8D599BF-346F-FF46-9897-315240A88F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
   <si>
     <t>WM</t>
   </si>
@@ -733,7 +733,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1421,7 +1421,9 @@
       <c r="P13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
